--- a/TPOP-donnees/He-Ne_2.xlsx
+++ b/TPOP-donnees/He-Ne_2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alexa\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Clément MSI\UL\Session H2024_4\TPOP\Michelson\TPOP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A71A2559-0F3E-4C28-8E2E-FD8A9CA9FA2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE461BB5-2907-441F-BC09-9CACF6B199BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="20928" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
@@ -601,48 +601,48 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="20 % - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20 % - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20 % - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20 % - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20 % - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20 % - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40 % - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40 % - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40 % - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40 % - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40 % - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40 % - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60 % - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60 % - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60 % - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60 % - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60 % - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60 % - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
     <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
     <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
     <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
     <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
     <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
     <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="Avertissement" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Calcul" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Cellule liée" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Entrée" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Insatisfaisant" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Neutre" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Satisfaisant" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Sortie" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Texte explicatif" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Titre" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Titre 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Titre 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Titre 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Titre 4" xfId="5" builtinId="19" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Vérification" xfId="13" builtinId="23" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -658,9 +658,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -698,7 +698,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -804,7 +804,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -946,7 +946,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -957,17 +957,17 @@
   <dimension ref="A1:F520"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.9453125" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.41796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.68359375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -975,7 +975,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -983,7 +983,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -991,7 +991,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -999,7 +999,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -1007,7 +1007,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -1015,7 +1015,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -1023,7 +1023,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -1043,7 +1043,7 @@
         <v>-36638.983</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -1063,7 +1063,7 @@
         <v>-327308.27</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -1083,7 +1083,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>20</v>
       </c>
@@ -1091,7 +1091,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>22</v>
       </c>
@@ -1099,7 +1099,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>24</v>
       </c>
@@ -1107,7 +1107,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>26</v>
       </c>
@@ -1115,7 +1115,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>28</v>
       </c>
@@ -1126,7 +1126,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>7271702</v>
       </c>
@@ -1137,7 +1137,7 @@
         <v>-322.42307</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>7271782</v>
       </c>
@@ -1148,7 +1148,7 @@
         <v>-295.55446000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>7271862</v>
       </c>
@@ -1159,7 +1159,7 @@
         <v>-227.16171</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>7271942</v>
       </c>
@@ -1170,7 +1170,7 @@
         <v>-75.720563999999996</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>7272022</v>
       </c>
@@ -1181,7 +1181,7 @@
         <v>-46.409379999999999</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>7272102</v>
       </c>
@@ -1192,7 +1192,7 @@
         <v>-114.80215</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>7272182</v>
       </c>
@@ -1203,7 +1203,7 @@
         <v>-239.37469999999999</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>7272262</v>
       </c>
@@ -1214,7 +1214,7 @@
         <v>-310.21005000000002</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>7272342</v>
       </c>
@@ -1225,7 +1225,7 @@
         <v>-310.21005000000002</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>7272422</v>
       </c>
@@ -1236,7 +1236,7 @@
         <v>-207.62090000000001</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>7272502</v>
       </c>
@@ -1247,7 +1247,7 @@
         <v>-144.11332999999999</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>7272582</v>
       </c>
@@ -1258,7 +1258,7 @@
         <v>-41.524183000000001</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>7272662</v>
       </c>
@@ -1269,7 +1269,7 @@
         <v>-175.86713</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>7272742</v>
       </c>
@@ -1280,7 +1280,7 @@
         <v>-293.11185999999998</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>7272822</v>
       </c>
@@ -1291,7 +1291,7 @@
         <v>-322.42307</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>7272902</v>
       </c>
@@ -1302,7 +1302,7 @@
         <v>-268.68588</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>7272982</v>
       </c>
@@ -1313,7 +1313,7 @@
         <v>-87.933563000000007</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>7273062</v>
       </c>
@@ -1324,7 +1324,7 @@
         <v>-39.081584999999997</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>7273142</v>
       </c>
@@ -1335,7 +1335,7 @@
         <v>-163.65413000000001</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>7273222</v>
       </c>
@@ -1346,7 +1346,7 @@
         <v>-276.01366999999999</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>7273302</v>
       </c>
@@ -1357,7 +1357,7 @@
         <v>-322.42307</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>7273382</v>
       </c>
@@ -1368,7 +1368,7 @@
         <v>-322.42307</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>7273462</v>
       </c>
@@ -1379,7 +1379,7 @@
         <v>-214.9487</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>7273542</v>
       </c>
@@ -1390,7 +1390,7 @@
         <v>-119.68735</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>7273622</v>
       </c>
@@ -1401,7 +1401,7 @@
         <v>-48.851978000000003</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>7273702</v>
       </c>
@@ -1412,7 +1412,7 @@
         <v>-97.703956000000005</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>7273782</v>
       </c>
@@ -1423,7 +1423,7 @@
         <v>-271.12848000000002</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>7273862</v>
       </c>
@@ -1434,7 +1434,7 @@
         <v>-324.86567000000002</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>7273942</v>
       </c>
@@ -1445,7 +1445,7 @@
         <v>-256.47289000000001</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>7274022</v>
       </c>
@@ -1456,7 +1456,7 @@
         <v>-105.03175</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>7274102</v>
       </c>
@@ -1467,7 +1467,7 @@
         <v>-46.409379999999999</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>7274182</v>
       </c>
@@ -1478,7 +1478,7 @@
         <v>-100.14655</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>7274262</v>
       </c>
@@ -1489,7 +1489,7 @@
         <v>-161.21154000000001</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>7274342</v>
       </c>
@@ -1500,7 +1500,7 @@
         <v>-305.32485000000003</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>7274422</v>
       </c>
@@ -1511,7 +1511,7 @@
         <v>-324.86567000000002</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>7274502</v>
       </c>
@@ -1522,7 +1522,7 @@
         <v>-285.78406999999999</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>7274582</v>
       </c>
@@ -1533,7 +1533,7 @@
         <v>-190.52271999999999</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>7274662</v>
       </c>
@@ -1544,7 +1544,7 @@
         <v>-46.409379999999999</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>7274742</v>
       </c>
@@ -1555,7 +1555,7 @@
         <v>-97.703956000000005</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>7274822</v>
       </c>
@@ -1566,7 +1566,7 @@
         <v>-246.70249000000001</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>7274902</v>
       </c>
@@ -1577,7 +1577,7 @@
         <v>-322.42307</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>7274982</v>
       </c>
@@ -1588,7 +1588,7 @@
         <v>-290.66926000000001</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>7275062</v>
       </c>
@@ -1599,7 +1599,7 @@
         <v>-95.261358000000001</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>7275142</v>
       </c>
@@ -1610,7 +1610,7 @@
         <v>-39.081584999999997</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>7275222</v>
       </c>
@@ -1621,7 +1621,7 @@
         <v>-114.80215</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>7275302</v>
       </c>
@@ -1632,7 +1632,7 @@
         <v>-175.86713</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>7275382</v>
       </c>
@@ -1643,7 +1643,7 @@
         <v>-288.22665999999998</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>7275462</v>
       </c>
@@ -1654,7 +1654,7 @@
         <v>-327.30826999999999</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>7275542</v>
       </c>
@@ -1665,7 +1665,7 @@
         <v>-283.34147000000002</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>7275622</v>
       </c>
@@ -1676,7 +1676,7 @@
         <v>-119.68735</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>7275702</v>
       </c>
@@ -1687,7 +1687,7 @@
         <v>-41.524183000000001</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>7275782</v>
       </c>
@@ -1698,7 +1698,7 @@
         <v>-114.80215</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>7275862</v>
       </c>
@@ -1709,7 +1709,7 @@
         <v>-214.9487</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>7275942</v>
       </c>
@@ -1720,7 +1720,7 @@
         <v>-310.21005000000002</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>7276022</v>
       </c>
@@ -1731,7 +1731,7 @@
         <v>-312.65267999999998</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>7276102</v>
       </c>
@@ -1742,7 +1742,7 @@
         <v>-246.70249000000001</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>7276182</v>
       </c>
@@ -1753,7 +1753,7 @@
         <v>-56.179777000000001</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>7276262</v>
       </c>
@@ -1764,7 +1764,7 @@
         <v>-41.524183000000001</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>7276342</v>
       </c>
@@ -1775,7 +1775,7 @@
         <v>-73.277964999999995</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>7276422</v>
       </c>
@@ -1786,7 +1786,7 @@
         <v>-146.55592999999999</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>7276502</v>
       </c>
@@ -1797,7 +1797,7 @@
         <v>-241.81729999999999</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>7276582</v>
       </c>
@@ -1808,7 +1808,7 @@
         <v>-302.88225</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>7276662</v>
       </c>
@@ -1819,7 +1819,7 @@
         <v>-246.70249000000001</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>7276742</v>
       </c>
@@ -1830,7 +1830,7 @@
         <v>-109.91696</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>7276822</v>
       </c>
@@ -1841,7 +1841,7 @@
         <v>-39.081584999999997</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>7276902</v>
       </c>
@@ -1852,7 +1852,7 @@
         <v>-73.277964999999995</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>7276982</v>
       </c>
@@ -1863,7 +1863,7 @@
         <v>-212.5061</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>7277062</v>
       </c>
@@ -1874,7 +1874,7 @@
         <v>-319.98047000000003</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>7277142</v>
       </c>
@@ -1885,7 +1885,7 @@
         <v>-319.98047000000003</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>7277222</v>
       </c>
@@ -1896,7 +1896,7 @@
         <v>-148.99852999999999</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>7277302</v>
       </c>
@@ -1907,7 +1907,7 @@
         <v>-112.35955</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>7277382</v>
       </c>
@@ -1918,7 +1918,7 @@
         <v>-43.966780999999997</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>7277462</v>
       </c>
@@ -1929,7 +1929,7 @@
         <v>-75.720563999999996</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>7277542</v>
       </c>
@@ -1940,7 +1940,7 @@
         <v>-173.42453</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>7277622</v>
       </c>
@@ -1951,7 +1951,7 @@
         <v>-268.68588</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>7277702</v>
       </c>
@@ -1962,7 +1962,7 @@
         <v>-324.86567000000002</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>7277782</v>
       </c>
@@ -1973,7 +1973,7 @@
         <v>-188.08011999999999</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>7277862</v>
       </c>
@@ -1984,7 +1984,7 @@
         <v>-102.58915</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>7277942</v>
       </c>
@@ -1995,7 +1995,7 @@
         <v>-39.081584999999997</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>7278022</v>
       </c>
@@ -2006,7 +2006,7 @@
         <v>-48.851978000000003</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>7278102</v>
       </c>
@@ -2017,7 +2017,7 @@
         <v>-183.19492</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>7278182</v>
       </c>
@@ -2028,7 +2028,7 @@
         <v>-293.11185999999998</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>7278262</v>
       </c>
@@ -2039,7 +2039,7 @@
         <v>-317.53787</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>7278342</v>
       </c>
@@ -2050,7 +2050,7 @@
         <v>-224.71911</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>7278422</v>
       </c>
@@ -2061,7 +2061,7 @@
         <v>-175.86713</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>7278502</v>
       </c>
@@ -2072,7 +2072,7 @@
         <v>-80.605767999999998</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>7278582</v>
       </c>
@@ -2083,7 +2083,7 @@
         <v>-39.081584999999997</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>7278662</v>
       </c>
@@ -2094,7 +2094,7 @@
         <v>-117.24475</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>7278742</v>
       </c>
@@ -2105,7 +2105,7 @@
         <v>-234.48949999999999</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>7278822</v>
       </c>
@@ -2116,7 +2116,7 @@
         <v>-324.86567000000002</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>7278902</v>
       </c>
@@ -2127,7 +2127,7 @@
         <v>-266.24328000000003</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>7278982</v>
       </c>
@@ -2138,7 +2138,7 @@
         <v>-146.55592999999999</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>7279062</v>
       </c>
@@ -2149,7 +2149,7 @@
         <v>-51.294575999999999</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>7279142</v>
       </c>
@@ -2160,7 +2160,7 @@
         <v>-87.933563000000007</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <v>7279222</v>
       </c>
@@ -2171,7 +2171,7 @@
         <v>-195.40790999999999</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <v>7279302</v>
       </c>
@@ -2182,7 +2182,7 @@
         <v>-319.98047000000003</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <v>7279382</v>
       </c>
@@ -2193,7 +2193,7 @@
         <v>-302.88225</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
         <v>7279462</v>
       </c>
@@ -2204,7 +2204,7 @@
         <v>-212.5061</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <v>7279542</v>
       </c>
@@ -2215,7 +2215,7 @@
         <v>-163.65413000000001</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
         <v>7279622</v>
       </c>
@@ -2226,7 +2226,7 @@
         <v>-56.179777000000001</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <v>7279702</v>
       </c>
@@ -2237,7 +2237,7 @@
         <v>-53.737175000000001</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
         <v>7279782</v>
       </c>
@@ -2248,7 +2248,7 @@
         <v>-244.25989000000001</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
         <v>7279862</v>
       </c>
@@ -2259,7 +2259,7 @@
         <v>-295.55446000000001</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
         <v>7279942</v>
       </c>
@@ -2270,7 +2270,7 @@
         <v>-322.42307</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
         <v>7280022</v>
       </c>
@@ -2281,7 +2281,7 @@
         <v>-246.70249000000001</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
         <v>7280102</v>
       </c>
@@ -2292,7 +2292,7 @@
         <v>-144.11332999999999</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
         <v>7280182</v>
       </c>
@@ -2303,7 +2303,7 @@
         <v>-36.638983000000003</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
         <v>7280262</v>
       </c>
@@ -2314,7 +2314,7 @@
         <v>-75.720563999999996</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
         <v>7280342</v>
       </c>
@@ -2325,7 +2325,7 @@
         <v>-234.48949999999999</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
         <v>7280422</v>
       </c>
@@ -2336,7 +2336,7 @@
         <v>-246.70249000000001</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
         <v>7280502</v>
       </c>
@@ -2347,7 +2347,7 @@
         <v>-307.76745</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
         <v>7280582</v>
       </c>
@@ -2358,7 +2358,7 @@
         <v>-276.01366999999999</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
         <v>7280662</v>
       </c>
@@ -2369,7 +2369,7 @@
         <v>-131.90034</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
         <v>7280742</v>
       </c>
@@ -2380,7 +2380,7 @@
         <v>-63.507572000000003</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
         <v>7280822</v>
       </c>
@@ -2391,7 +2391,7 @@
         <v>-100.14655</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
         <v>7280902</v>
       </c>
@@ -2402,7 +2402,7 @@
         <v>-232.04689999999999</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
         <v>7280982</v>
       </c>
@@ -2413,7 +2413,7 @@
         <v>-324.86567000000002</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
         <v>7281062</v>
       </c>
@@ -2424,7 +2424,7 @@
         <v>-195.40790999999999</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
         <v>7281142</v>
       </c>
@@ -2435,7 +2435,7 @@
         <v>-146.55592999999999</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
         <v>7281222</v>
       </c>
@@ -2446,7 +2446,7 @@
         <v>-41.524183000000001</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
         <v>7281302</v>
       </c>
@@ -2457,7 +2457,7 @@
         <v>-87.933563000000007</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
         <v>7281382</v>
       </c>
@@ -2468,7 +2468,7 @@
         <v>-241.81729999999999</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
         <v>7281462</v>
       </c>
@@ -2479,7 +2479,7 @@
         <v>-319.98047000000003</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
         <v>7281542</v>
       </c>
@@ -2490,7 +2490,7 @@
         <v>-319.98047000000003</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A143" s="1">
         <v>7281622</v>
       </c>
@@ -2501,7 +2501,7 @@
         <v>-246.70249000000001</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A144" s="1">
         <v>7281702</v>
       </c>
@@ -2512,7 +2512,7 @@
         <v>-97.703956000000005</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A145" s="1">
         <v>7281782</v>
       </c>
@@ -2523,7 +2523,7 @@
         <v>-61.064973000000002</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A146" s="1">
         <v>7281862</v>
       </c>
@@ -2534,7 +2534,7 @@
         <v>-217.3913</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A147" s="1">
         <v>7281942</v>
       </c>
@@ -2545,7 +2545,7 @@
         <v>-305.32485000000003</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A148" s="1">
         <v>7282022</v>
       </c>
@@ -2556,7 +2556,7 @@
         <v>-317.53787</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A149" s="1">
         <v>7282102</v>
       </c>
@@ -2567,7 +2567,7 @@
         <v>-241.81729999999999</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A150" s="1">
         <v>7282182</v>
       </c>
@@ -2578,7 +2578,7 @@
         <v>-58.622374999999998</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A151" s="1">
         <v>7282262</v>
       </c>
@@ -2589,7 +2589,7 @@
         <v>-36.638983000000003</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A152" s="1">
         <v>7282342</v>
       </c>
@@ -2600,7 +2600,7 @@
         <v>-129.45774</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A153" s="1">
         <v>7282422</v>
       </c>
@@ -2611,7 +2611,7 @@
         <v>-227.16171</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A154" s="1">
         <v>7282502</v>
       </c>
@@ -2622,7 +2622,7 @@
         <v>-324.86567000000002</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A155" s="1">
         <v>7282582</v>
       </c>
@@ -2633,7 +2633,7 @@
         <v>-310.21005000000002</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A156" s="1">
         <v>7282662</v>
       </c>
@@ -2644,7 +2644,7 @@
         <v>-173.42453</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A157" s="1">
         <v>7282742</v>
       </c>
@@ -2655,7 +2655,7 @@
         <v>-114.80215</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A158" s="1">
         <v>7282822</v>
       </c>
@@ -2666,7 +2666,7 @@
         <v>-48.851978000000003</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A159" s="1">
         <v>7282902</v>
       </c>
@@ -2677,7 +2677,7 @@
         <v>-249.14509000000001</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A160" s="1">
         <v>7282982</v>
       </c>
@@ -2688,7 +2688,7 @@
         <v>-307.76745</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A161" s="1">
         <v>7283062</v>
       </c>
@@ -2699,7 +2699,7 @@
         <v>-214.9487</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A162" s="1">
         <v>7283142</v>
       </c>
@@ -2710,7 +2710,7 @@
         <v>-180.75232</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A163" s="1">
         <v>7283222</v>
       </c>
@@ -2721,7 +2721,7 @@
         <v>-43.966780999999997</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A164" s="1">
         <v>7283302</v>
       </c>
@@ -2732,7 +2732,7 @@
         <v>-102.58915</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A165" s="1">
         <v>7283382</v>
       </c>
@@ -2743,7 +2743,7 @@
         <v>-300.43966</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A166" s="1">
         <v>7283462</v>
       </c>
@@ -2754,7 +2754,7 @@
         <v>-310.21005000000002</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A167" s="1">
         <v>7283542</v>
       </c>
@@ -2765,7 +2765,7 @@
         <v>-268.68588</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A168" s="1">
         <v>7283622</v>
       </c>
@@ -2776,7 +2776,7 @@
         <v>-119.68735</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A169" s="1">
         <v>7283702</v>
       </c>
@@ -2787,7 +2787,7 @@
         <v>-43.966780999999997</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A170" s="1">
         <v>7283782</v>
       </c>
@@ -2798,7 +2798,7 @@
         <v>-87.933563000000007</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A171" s="1">
         <v>7283862</v>
       </c>
@@ -2809,7 +2809,7 @@
         <v>-244.25989000000001</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A172" s="1">
         <v>7283942</v>
       </c>
@@ -2820,7 +2820,7 @@
         <v>-322.42307</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A173" s="1">
         <v>7284022</v>
       </c>
@@ -2831,7 +2831,7 @@
         <v>-236.93209999999999</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A174" s="1">
         <v>7284102</v>
       </c>
@@ -2842,7 +2842,7 @@
         <v>-122.12994999999999</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A175" s="1">
         <v>7284182</v>
       </c>
@@ -2853,7 +2853,7 @@
         <v>-41.524183000000001</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A176" s="1">
         <v>7284262</v>
       </c>
@@ -2864,7 +2864,7 @@
         <v>-70.835367000000005</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A177" s="1">
         <v>7284342</v>
       </c>
@@ -2875,7 +2875,7 @@
         <v>-158.76893999999999</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A178" s="1">
         <v>7284422</v>
       </c>
@@ -2886,7 +2886,7 @@
         <v>-307.76745</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A179" s="1">
         <v>7284502</v>
       </c>
@@ -2897,7 +2897,7 @@
         <v>-302.88225</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A180" s="1">
         <v>7284582</v>
       </c>
@@ -2908,7 +2908,7 @@
         <v>-234.48949999999999</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A181" s="1">
         <v>7284662</v>
       </c>
@@ -2919,7 +2919,7 @@
         <v>-144.11332999999999</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A182" s="1">
         <v>7284742</v>
       </c>
@@ -2930,7 +2930,7 @@
         <v>-48.851978000000003</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A183" s="1">
         <v>7284822</v>
       </c>
@@ -2941,7 +2941,7 @@
         <v>-56.179777000000001</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A184" s="1">
         <v>7284902</v>
       </c>
@@ -2952,7 +2952,7 @@
         <v>-297.99705999999998</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A185" s="1">
         <v>7284982</v>
       </c>
@@ -2963,7 +2963,7 @@
         <v>-315.09528</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A186" s="1">
         <v>7285062</v>
       </c>
@@ -2974,7 +2974,7 @@
         <v>-229.60429999999999</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A187" s="1">
         <v>7285142</v>
       </c>
@@ -2985,7 +2985,7 @@
         <v>-48.851978000000003</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A188" s="1">
         <v>7285222</v>
       </c>
@@ -2996,7 +2996,7 @@
         <v>-41.524183000000001</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A189" s="1">
         <v>7285302</v>
       </c>
@@ -3007,7 +3007,7 @@
         <v>-192.96530999999999</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A190" s="1">
         <v>7285382</v>
       </c>
@@ -3018,7 +3018,7 @@
         <v>-261.35807999999997</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A191" s="1">
         <v>7285462</v>
       </c>
@@ -3029,7 +3029,7 @@
         <v>-312.65267999999998</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A192" s="1">
         <v>7285542</v>
       </c>
@@ -3040,7 +3040,7 @@
         <v>-239.37469999999999</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A193" s="1">
         <v>7285622</v>
       </c>
@@ -3051,7 +3051,7 @@
         <v>-87.933563000000007</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A194" s="1">
         <v>7285702</v>
       </c>
@@ -3062,7 +3062,7 @@
         <v>-41.524183000000001</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A195" s="1">
         <v>7285782</v>
       </c>
@@ -3073,7 +3073,7 @@
         <v>-80.605767999999998</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A196" s="1">
         <v>7285862</v>
       </c>
@@ -3084,7 +3084,7 @@
         <v>-224.71911</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A197" s="1">
         <v>7285942</v>
       </c>
@@ -3095,7 +3095,7 @@
         <v>-312.65267999999998</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A198" s="1">
         <v>7286022</v>
       </c>
@@ -3106,7 +3106,7 @@
         <v>-205.17831000000001</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A199" s="1">
         <v>7286102</v>
       </c>
@@ -3117,7 +3117,7 @@
         <v>-87.933563000000007</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A200" s="1">
         <v>7286182</v>
       </c>
@@ -3128,7 +3128,7 @@
         <v>-41.524183000000001</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A201" s="1">
         <v>7286262</v>
       </c>
@@ -3139,7 +3139,7 @@
         <v>-85.490964000000005</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A202" s="1">
         <v>7286342</v>
       </c>
@@ -3150,7 +3150,7 @@
         <v>-190.52271999999999</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A203" s="1">
         <v>7286422</v>
       </c>
@@ -3161,7 +3161,7 @@
         <v>-319.98047000000003</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A204" s="1">
         <v>7286502</v>
       </c>
@@ -3172,7 +3172,7 @@
         <v>-297.99705999999998</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A205" s="1">
         <v>7286582</v>
       </c>
@@ -3183,7 +3183,7 @@
         <v>-229.60429999999999</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A206" s="1">
         <v>7286662</v>
       </c>
@@ -3194,7 +3194,7 @@
         <v>-124.57255000000001</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A207" s="1">
         <v>7286742</v>
       </c>
@@ -3205,7 +3205,7 @@
         <v>-41.524183000000001</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A208" s="1">
         <v>7286822</v>
       </c>
@@ -3216,7 +3216,7 @@
         <v>-58.622374999999998</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A209" s="1">
         <v>7286902</v>
       </c>
@@ -3227,7 +3227,7 @@
         <v>-258.91548</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A210" s="1">
         <v>7286982</v>
       </c>
@@ -3238,7 +3238,7 @@
         <v>-319.98047000000003</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A211" s="1">
         <v>7287062</v>
       </c>
@@ -3249,7 +3249,7 @@
         <v>-232.04689999999999</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A212" s="1">
         <v>7287142</v>
       </c>
@@ -3260,7 +3260,7 @@
         <v>-58.622374999999998</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A213" s="1">
         <v>7287222</v>
       </c>
@@ -3271,7 +3271,7 @@
         <v>-53.737175000000001</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A214" s="1">
         <v>7287302</v>
       </c>
@@ -3282,7 +3282,7 @@
         <v>-258.91548</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A215" s="1">
         <v>7287382</v>
       </c>
@@ -3293,7 +3293,7 @@
         <v>-276.01366999999999</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A216" s="1">
         <v>7287462</v>
       </c>
@@ -3304,7 +3304,7 @@
         <v>-254.03029000000001</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A217" s="1">
         <v>7287542</v>
       </c>
@@ -3315,7 +3315,7 @@
         <v>-127.01514</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A218" s="1">
         <v>7287622</v>
       </c>
@@ -3326,7 +3326,7 @@
         <v>-43.966780999999997</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A219" s="1">
         <v>7287702</v>
       </c>
@@ -3337,7 +3337,7 @@
         <v>-58.622374999999998</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A220" s="1">
         <v>7287782</v>
       </c>
@@ -3348,7 +3348,7 @@
         <v>-141.67072999999999</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A221" s="1">
         <v>7287862</v>
       </c>
@@ -3359,7 +3359,7 @@
         <v>-300.43966</v>
       </c>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A222" s="1">
         <v>7287942</v>
       </c>
@@ -3370,7 +3370,7 @@
         <v>-285.78406999999999</v>
       </c>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A223" s="1">
         <v>7288022</v>
       </c>
@@ -3381,7 +3381,7 @@
         <v>-109.91696</v>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A224" s="1">
         <v>7288102</v>
       </c>
@@ -3392,7 +3392,7 @@
         <v>-46.409379999999999</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A225" s="1">
         <v>7288182</v>
       </c>
@@ -3403,7 +3403,7 @@
         <v>-68.392769000000001</v>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A226" s="1">
         <v>7288262</v>
       </c>
@@ -3414,7 +3414,7 @@
         <v>-109.91696</v>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A227" s="1">
         <v>7288342</v>
       </c>
@@ -3425,7 +3425,7 @@
         <v>-290.66926000000001</v>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A228" s="1">
         <v>7288422</v>
       </c>
@@ -3436,7 +3436,7 @@
         <v>-324.86567000000002</v>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A229" s="1">
         <v>7288502</v>
       </c>
@@ -3447,7 +3447,7 @@
         <v>-254.03029000000001</v>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A230" s="1">
         <v>7288582</v>
       </c>
@@ -3458,7 +3458,7 @@
         <v>-178.30972</v>
       </c>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A231" s="1">
         <v>7288662</v>
       </c>
@@ -3469,7 +3469,7 @@
         <v>-73.277964999999995</v>
       </c>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A232" s="1">
         <v>7288742</v>
       </c>
@@ -3480,7 +3480,7 @@
         <v>-63.507572000000003</v>
       </c>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A233" s="1">
         <v>7288822</v>
       </c>
@@ -3491,7 +3491,7 @@
         <v>-105.03175</v>
       </c>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A234" s="1">
         <v>7288902</v>
       </c>
@@ -3502,7 +3502,7 @@
         <v>-263.80068</v>
       </c>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A235" s="1">
         <v>7288982</v>
       </c>
@@ -3513,7 +3513,7 @@
         <v>-324.86567000000002</v>
       </c>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A236" s="1">
         <v>7289062</v>
       </c>
@@ -3524,7 +3524,7 @@
         <v>-229.60429999999999</v>
       </c>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A237" s="1">
         <v>7289142</v>
       </c>
@@ -3535,7 +3535,7 @@
         <v>-53.737175000000001</v>
       </c>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A238" s="1">
         <v>7289222</v>
       </c>
@@ -3546,7 +3546,7 @@
         <v>-48.851978000000003</v>
       </c>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A239" s="1">
         <v>7289302</v>
       </c>
@@ -3557,7 +3557,7 @@
         <v>-170.98193000000001</v>
       </c>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A240" s="1">
         <v>7289382</v>
       </c>
@@ -3568,7 +3568,7 @@
         <v>-300.43966</v>
       </c>
     </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A241" s="1">
         <v>7289462</v>
       </c>
@@ -3579,7 +3579,7 @@
         <v>-300.43966</v>
       </c>
     </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A242" s="1">
         <v>7289542</v>
       </c>
@@ -3590,7 +3590,7 @@
         <v>-166.09673000000001</v>
       </c>
     </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A243" s="1">
         <v>7289622</v>
       </c>
@@ -3601,7 +3601,7 @@
         <v>-46.409379999999999</v>
       </c>
     </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="244" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A244" s="1">
         <v>7289702</v>
       </c>
@@ -3612,7 +3612,7 @@
         <v>-48.851978000000003</v>
       </c>
     </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="245" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A245" s="1">
         <v>7289782</v>
       </c>
@@ -3623,7 +3623,7 @@
         <v>-97.703956000000005</v>
       </c>
     </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="246" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A246" s="1">
         <v>7289862</v>
       </c>
@@ -3634,7 +3634,7 @@
         <v>-249.14509000000001</v>
       </c>
     </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="247" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A247" s="1">
         <v>7289942</v>
       </c>
@@ -3645,7 +3645,7 @@
         <v>-324.86567000000002</v>
       </c>
     </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="248" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A248" s="1">
         <v>7290022</v>
       </c>
@@ -3656,7 +3656,7 @@
         <v>-178.30972</v>
       </c>
     </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="249" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A249" s="1">
         <v>7290102</v>
       </c>
@@ -3667,7 +3667,7 @@
         <v>-90.376160999999996</v>
       </c>
     </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="250" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A250" s="1">
         <v>7290182</v>
       </c>
@@ -3678,7 +3678,7 @@
         <v>-41.524183000000001</v>
       </c>
     </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="251" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A251" s="1">
         <v>7290262</v>
       </c>
@@ -3689,7 +3689,7 @@
         <v>-173.42453</v>
       </c>
     </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="252" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A252" s="1">
         <v>7290342</v>
       </c>
@@ -3700,7 +3700,7 @@
         <v>-266.24328000000003</v>
       </c>
     </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="253" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A253" s="1">
         <v>7290422</v>
       </c>
@@ -3711,7 +3711,7 @@
         <v>-319.98047000000003</v>
       </c>
     </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="254" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A254" s="1">
         <v>7290502</v>
       </c>
@@ -3722,7 +3722,7 @@
         <v>-297.99705999999998</v>
       </c>
     </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="255" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A255" s="1">
         <v>7290582</v>
       </c>
@@ -3733,7 +3733,7 @@
         <v>-166.09673000000001</v>
       </c>
     </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="256" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A256" s="1">
         <v>7290662</v>
       </c>
@@ -3744,7 +3744,7 @@
         <v>-92.818759</v>
       </c>
     </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="257" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A257" s="1">
         <v>7290742</v>
       </c>
@@ -3755,7 +3755,7 @@
         <v>-48.851978000000003</v>
       </c>
     </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="258" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A258" s="1">
         <v>7290822</v>
       </c>
@@ -3766,7 +3766,7 @@
         <v>-70.835367000000005</v>
       </c>
     </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="259" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A259" s="1">
         <v>7290902</v>
       </c>
@@ -3777,7 +3777,7 @@
         <v>-236.93209999999999</v>
       </c>
     </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="260" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A260" s="1">
         <v>7290982</v>
       </c>
@@ -3788,7 +3788,7 @@
         <v>-307.76745</v>
       </c>
     </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="261" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A261" s="1">
         <v>7291062</v>
       </c>
@@ -3799,7 +3799,7 @@
         <v>-207.62090000000001</v>
       </c>
     </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="262" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A262" s="1">
         <v>7291142</v>
       </c>
@@ -3810,7 +3810,7 @@
         <v>-63.507572000000003</v>
       </c>
     </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="263" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A263" s="1">
         <v>7291222</v>
       </c>
@@ -3821,7 +3821,7 @@
         <v>-68.392769000000001</v>
       </c>
     </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="264" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A264" s="1">
         <v>7291302</v>
       </c>
@@ -3832,7 +3832,7 @@
         <v>-212.5061</v>
       </c>
     </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="265" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A265" s="1">
         <v>7291382</v>
       </c>
@@ -3843,7 +3843,7 @@
         <v>-285.78406999999999</v>
       </c>
     </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="266" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A266" s="1">
         <v>7291462</v>
       </c>
@@ -3854,7 +3854,7 @@
         <v>-297.99705999999998</v>
       </c>
     </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="267" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A267" s="1">
         <v>7291542</v>
       </c>
@@ -3865,7 +3865,7 @@
         <v>-134.34294</v>
       </c>
     </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="268" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A268" s="1">
         <v>7291622</v>
       </c>
@@ -3876,7 +3876,7 @@
         <v>-39.081584999999997</v>
       </c>
     </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="269" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A269" s="1">
         <v>7291702</v>
       </c>
@@ -3887,7 +3887,7 @@
         <v>-56.179777000000001</v>
       </c>
     </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="270" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A270" s="1">
         <v>7291782</v>
       </c>
@@ -3898,7 +3898,7 @@
         <v>-170.98193000000001</v>
       </c>
     </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="271" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A271" s="1">
         <v>7291862</v>
       </c>
@@ -3909,7 +3909,7 @@
         <v>-268.68588</v>
       </c>
     </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="272" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A272" s="1">
         <v>7291942</v>
       </c>
@@ -3920,7 +3920,7 @@
         <v>-315.09528</v>
       </c>
     </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="273" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A273" s="1">
         <v>7292022</v>
       </c>
@@ -3931,7 +3931,7 @@
         <v>-183.19492</v>
       </c>
     </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="274" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A274" s="1">
         <v>7292102</v>
       </c>
@@ -3942,7 +3942,7 @@
         <v>-46.409379999999999</v>
       </c>
     </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="275" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A275" s="1">
         <v>7292182</v>
       </c>
@@ -3953,7 +3953,7 @@
         <v>-61.064973000000002</v>
       </c>
     </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="276" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A276" s="1">
         <v>7292262</v>
       </c>
@@ -3964,7 +3964,7 @@
         <v>-180.75232</v>
       </c>
     </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="277" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A277" s="1">
         <v>7292342</v>
       </c>
@@ -3975,7 +3975,7 @@
         <v>-295.55446000000001</v>
       </c>
     </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="278" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A278" s="1">
         <v>7292422</v>
       </c>
@@ -3986,7 +3986,7 @@
         <v>-322.42307</v>
       </c>
     </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="279" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A279" s="1">
         <v>7292502</v>
       </c>
@@ -3997,7 +3997,7 @@
         <v>-280.89886999999999</v>
       </c>
     </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="280" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A280" s="1">
         <v>7292582</v>
       </c>
@@ -4008,7 +4008,7 @@
         <v>-112.35955</v>
       </c>
     </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="281" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A281" s="1">
         <v>7292662</v>
       </c>
@@ -4019,7 +4019,7 @@
         <v>-43.966780999999997</v>
       </c>
     </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="282" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A282" s="1">
         <v>7292742</v>
       </c>
@@ -4030,7 +4030,7 @@
         <v>-83.048366000000001</v>
       </c>
     </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="283" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A283" s="1">
         <v>7292822</v>
       </c>
@@ -4041,7 +4041,7 @@
         <v>-114.80215</v>
       </c>
     </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="284" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A284" s="1">
         <v>7292902</v>
       </c>
@@ -4052,7 +4052,7 @@
         <v>-278.45627000000002</v>
       </c>
     </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="285" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A285" s="1">
         <v>7292982</v>
       </c>
@@ -4063,7 +4063,7 @@
         <v>-319.98047000000003</v>
       </c>
     </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="286" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A286" s="1">
         <v>7293062</v>
       </c>
@@ -4074,7 +4074,7 @@
         <v>-239.37469999999999</v>
       </c>
     </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="287" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A287" s="1">
         <v>7293142</v>
       </c>
@@ -4085,7 +4085,7 @@
         <v>-43.966780999999997</v>
       </c>
     </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="288" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A288" s="1">
         <v>7293222</v>
       </c>
@@ -4096,7 +4096,7 @@
         <v>-39.081584999999997</v>
       </c>
     </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="289" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A289" s="1">
         <v>7293302</v>
       </c>
@@ -4107,7 +4107,7 @@
         <v>-210.0635</v>
       </c>
     </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="290" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A290" s="1">
         <v>7293382</v>
       </c>
@@ -4118,7 +4118,7 @@
         <v>-283.34147000000002</v>
       </c>
     </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="291" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A291" s="1">
         <v>7293462</v>
       </c>
@@ -4129,7 +4129,7 @@
         <v>-232.04689999999999</v>
       </c>
     </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="292" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A292" s="1">
         <v>7293542</v>
       </c>
@@ -4140,7 +4140,7 @@
         <v>-217.3913</v>
       </c>
     </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="293" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A293" s="1">
         <v>7293622</v>
       </c>
@@ -4151,7 +4151,7 @@
         <v>-46.409379999999999</v>
       </c>
     </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="294" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A294" s="1">
         <v>7293702</v>
       </c>
@@ -4162,7 +4162,7 @@
         <v>-63.507572000000003</v>
       </c>
     </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="295" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A295" s="1">
         <v>7293782</v>
       </c>
@@ -4173,7 +4173,7 @@
         <v>-175.86713</v>
       </c>
     </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="296" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A296" s="1">
         <v>7293862</v>
       </c>
@@ -4184,7 +4184,7 @@
         <v>-276.01366999999999</v>
       </c>
     </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="297" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A297" s="1">
         <v>7293942</v>
       </c>
@@ -4195,7 +4195,7 @@
         <v>-327.30826999999999</v>
       </c>
     </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="298" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A298" s="1">
         <v>7294022</v>
       </c>
@@ -4206,7 +4206,7 @@
         <v>-241.81729999999999</v>
       </c>
     </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="299" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A299" s="1">
         <v>7294102</v>
       </c>
@@ -4217,7 +4217,7 @@
         <v>-87.933563000000007</v>
       </c>
     </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="300" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A300" s="1">
         <v>7294182</v>
       </c>
@@ -4228,7 +4228,7 @@
         <v>-53.737175000000001</v>
       </c>
     </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="301" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A301" s="1">
         <v>7294262</v>
       </c>
@@ -4239,7 +4239,7 @@
         <v>-178.30972</v>
       </c>
     </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="302" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A302" s="1">
         <v>7294342</v>
       </c>
@@ -4250,7 +4250,7 @@
         <v>-280.89886999999999</v>
       </c>
     </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="303" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A303" s="1">
         <v>7294422</v>
       </c>
@@ -4261,7 +4261,7 @@
         <v>-324.86567000000002</v>
       </c>
     </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="304" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A304" s="1">
         <v>7294502</v>
       </c>
@@ -4272,7 +4272,7 @@
         <v>-261.35807999999997</v>
       </c>
     </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="305" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A305" s="1">
         <v>7294582</v>
       </c>
@@ -4283,7 +4283,7 @@
         <v>-139.22814</v>
       </c>
     </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="306" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A306" s="1">
         <v>7294662</v>
       </c>
@@ -4294,7 +4294,7 @@
         <v>-43.966780999999997</v>
       </c>
     </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="307" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A307" s="1">
         <v>7294742</v>
       </c>
@@ -4305,7 +4305,7 @@
         <v>-75.720563999999996</v>
       </c>
     </row>
-    <row r="308" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="308" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A308" s="1">
         <v>7294822</v>
       </c>
@@ -4316,7 +4316,7 @@
         <v>-136.78554</v>
       </c>
     </row>
-    <row r="309" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="309" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A309" s="1">
         <v>7294902</v>
       </c>
@@ -4327,7 +4327,7 @@
         <v>-268.68588</v>
       </c>
     </row>
-    <row r="310" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="310" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A310" s="1">
         <v>7294982</v>
       </c>
@@ -4338,7 +4338,7 @@
         <v>-319.98047000000003</v>
       </c>
     </row>
-    <row r="311" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="311" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A311" s="1">
         <v>7295062</v>
       </c>
@@ -4349,7 +4349,7 @@
         <v>-285.78406999999999</v>
       </c>
     </row>
-    <row r="312" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="312" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A312" s="1">
         <v>7295142</v>
       </c>
@@ -4360,7 +4360,7 @@
         <v>-51.294575999999999</v>
       </c>
     </row>
-    <row r="313" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="313" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A313" s="1">
         <v>7295222</v>
       </c>
@@ -4371,7 +4371,7 @@
         <v>-46.409379999999999</v>
       </c>
     </row>
-    <row r="314" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="314" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A314" s="1">
         <v>7295302</v>
       </c>
@@ -4382,7 +4382,7 @@
         <v>-185.63751999999999</v>
       </c>
     </row>
-    <row r="315" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="315" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A315" s="1">
         <v>7295382</v>
       </c>
@@ -4393,7 +4393,7 @@
         <v>-315.09528</v>
       </c>
     </row>
-    <row r="316" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="316" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A316" s="1">
         <v>7295462</v>
       </c>
@@ -4404,7 +4404,7 @@
         <v>-268.68588</v>
       </c>
     </row>
-    <row r="317" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="317" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A317" s="1">
         <v>7295542</v>
       </c>
@@ -4415,7 +4415,7 @@
         <v>-102.58915</v>
       </c>
     </row>
-    <row r="318" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="318" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A318" s="1">
         <v>7295622</v>
       </c>
@@ -4426,7 +4426,7 @@
         <v>-43.966780999999997</v>
       </c>
     </row>
-    <row r="319" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="319" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A319" s="1">
         <v>7295702</v>
       </c>
@@ -4437,7 +4437,7 @@
         <v>-146.55592999999999</v>
       </c>
     </row>
-    <row r="320" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="320" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A320" s="1">
         <v>7295782</v>
       </c>
@@ -4448,7 +4448,7 @@
         <v>-254.03029000000001</v>
       </c>
     </row>
-    <row r="321" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="321" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A321" s="1">
         <v>7295862</v>
       </c>
@@ -4459,7 +4459,7 @@
         <v>-324.86567000000002</v>
       </c>
     </row>
-    <row r="322" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="322" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A322" s="1">
         <v>7295942</v>
       </c>
@@ -4470,7 +4470,7 @@
         <v>-310.21005000000002</v>
       </c>
     </row>
-    <row r="323" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="323" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A323" s="1">
         <v>7296022</v>
       </c>
@@ -4481,7 +4481,7 @@
         <v>-161.21154000000001</v>
       </c>
     </row>
-    <row r="324" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="324" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A324" s="1">
         <v>7296102</v>
       </c>
@@ -4492,7 +4492,7 @@
         <v>-41.524183000000001</v>
       </c>
     </row>
-    <row r="325" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="325" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A325" s="1">
         <v>7296182</v>
       </c>
@@ -4503,7 +4503,7 @@
         <v>-119.68735</v>
       </c>
     </row>
-    <row r="326" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="326" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A326" s="1">
         <v>7296262</v>
       </c>
@@ -4514,7 +4514,7 @@
         <v>-278.45627000000002</v>
       </c>
     </row>
-    <row r="327" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="327" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A327" s="1">
         <v>7296342</v>
       </c>
@@ -4525,7 +4525,7 @@
         <v>-327.30826999999999</v>
       </c>
     </row>
-    <row r="328" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="328" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A328" s="1">
         <v>7296422</v>
       </c>
@@ -4536,7 +4536,7 @@
         <v>-288.22665999999998</v>
       </c>
     </row>
-    <row r="329" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="329" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A329" s="1">
         <v>7296502</v>
       </c>
@@ -4547,7 +4547,7 @@
         <v>-153.88373000000001</v>
       </c>
     </row>
-    <row r="330" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="330" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A330" s="1">
         <v>7296582</v>
       </c>
@@ -4558,7 +4558,7 @@
         <v>-68.392769000000001</v>
       </c>
     </row>
-    <row r="331" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="331" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A331" s="1">
         <v>7296662</v>
       </c>
@@ -4569,7 +4569,7 @@
         <v>-70.835367000000005</v>
       </c>
     </row>
-    <row r="332" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="332" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A332" s="1">
         <v>7296742</v>
       </c>
@@ -4580,7 +4580,7 @@
         <v>-156.32633999999999</v>
       </c>
     </row>
-    <row r="333" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="333" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A333" s="1">
         <v>7296822</v>
       </c>
@@ -4591,7 +4591,7 @@
         <v>-268.68588</v>
       </c>
     </row>
-    <row r="334" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="334" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A334" s="1">
         <v>7296902</v>
       </c>
@@ -4602,7 +4602,7 @@
         <v>-324.86567000000002</v>
       </c>
     </row>
-    <row r="335" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="335" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A335" s="1">
         <v>7296982</v>
       </c>
@@ -4613,7 +4613,7 @@
         <v>-256.47289000000001</v>
       </c>
     </row>
-    <row r="336" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="336" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A336" s="1">
         <v>7297062</v>
       </c>
@@ -4624,7 +4624,7 @@
         <v>-141.67072999999999</v>
       </c>
     </row>
-    <row r="337" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="337" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A337" s="1">
         <v>7297142</v>
       </c>
@@ -4635,7 +4635,7 @@
         <v>-39.081584999999997</v>
       </c>
     </row>
-    <row r="338" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="338" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A338" s="1">
         <v>7297222</v>
       </c>
@@ -4646,7 +4646,7 @@
         <v>-151.44112999999999</v>
       </c>
     </row>
-    <row r="339" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="339" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A339" s="1">
         <v>7297302</v>
       </c>
@@ -4657,7 +4657,7 @@
         <v>-258.91548</v>
       </c>
     </row>
-    <row r="340" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="340" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A340" s="1">
         <v>7297382</v>
       </c>
@@ -4668,7 +4668,7 @@
         <v>-278.45627000000002</v>
       </c>
     </row>
-    <row r="341" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="341" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A341" s="1">
         <v>7297462</v>
       </c>
@@ -4679,7 +4679,7 @@
         <v>-180.75232</v>
       </c>
     </row>
-    <row r="342" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="342" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A342" s="1">
         <v>7297542</v>
       </c>
@@ -4690,7 +4690,7 @@
         <v>-41.524183000000001</v>
       </c>
     </row>
-    <row r="343" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="343" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A343" s="1">
         <v>7297622</v>
       </c>
@@ -4701,7 +4701,7 @@
         <v>-53.737175000000001</v>
       </c>
     </row>
-    <row r="344" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="344" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A344" s="1">
         <v>7297702</v>
       </c>
@@ -4712,7 +4712,7 @@
         <v>-249.14509000000001</v>
       </c>
     </row>
-    <row r="345" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="345" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A345" s="1">
         <v>7297782</v>
       </c>
@@ -4723,7 +4723,7 @@
         <v>-322.42307</v>
       </c>
     </row>
-    <row r="346" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="346" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A346" s="1">
         <v>7297862</v>
       </c>
@@ -4734,7 +4734,7 @@
         <v>-276.01366999999999</v>
       </c>
     </row>
-    <row r="347" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="347" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A347" s="1">
         <v>7297942</v>
       </c>
@@ -4745,7 +4745,7 @@
         <v>-148.99852999999999</v>
       </c>
     </row>
-    <row r="348" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="348" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A348" s="1">
         <v>7298022</v>
       </c>
@@ -4756,7 +4756,7 @@
         <v>-65.95017</v>
       </c>
     </row>
-    <row r="349" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="349" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A349" s="1">
         <v>7298102</v>
       </c>
@@ -4767,7 +4767,7 @@
         <v>-53.737175000000001</v>
       </c>
     </row>
-    <row r="350" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="350" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A350" s="1">
         <v>7298182</v>
       </c>
@@ -4778,7 +4778,7 @@
         <v>-261.35807999999997</v>
       </c>
     </row>
-    <row r="351" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="351" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A351" s="1">
         <v>7298262</v>
       </c>
@@ -4789,7 +4789,7 @@
         <v>-317.53787</v>
       </c>
     </row>
-    <row r="352" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="352" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A352" s="1">
         <v>7298342</v>
       </c>
@@ -4800,7 +4800,7 @@
         <v>-173.42453</v>
       </c>
     </row>
-    <row r="353" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="353" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A353" s="1">
         <v>7298422</v>
       </c>
@@ -4811,7 +4811,7 @@
         <v>-83.048366000000001</v>
       </c>
     </row>
-    <row r="354" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="354" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A354" s="1">
         <v>7298502</v>
       </c>
@@ -4822,7 +4822,7 @@
         <v>-41.524183000000001</v>
       </c>
     </row>
-    <row r="355" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="355" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A355" s="1">
         <v>7298582</v>
       </c>
@@ -4833,7 +4833,7 @@
         <v>-183.19492</v>
       </c>
     </row>
-    <row r="356" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="356" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A356" s="1">
         <v>7298662</v>
       </c>
@@ -4844,7 +4844,7 @@
         <v>-239.37469999999999</v>
       </c>
     </row>
-    <row r="357" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="357" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A357" s="1">
         <v>7298742</v>
       </c>
@@ -4855,7 +4855,7 @@
         <v>-315.09528</v>
       </c>
     </row>
-    <row r="358" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="358" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A358" s="1">
         <v>7298822</v>
       </c>
@@ -4866,7 +4866,7 @@
         <v>-258.91548</v>
       </c>
     </row>
-    <row r="359" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="359" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A359" s="1">
         <v>7298902</v>
       </c>
@@ -4877,7 +4877,7 @@
         <v>-83.048366000000001</v>
       </c>
     </row>
-    <row r="360" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="360" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A360" s="1">
         <v>7298982</v>
       </c>
@@ -4888,7 +4888,7 @@
         <v>-46.409379999999999</v>
       </c>
     </row>
-    <row r="361" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="361" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A361" s="1">
         <v>7299062</v>
       </c>
@@ -4899,7 +4899,7 @@
         <v>-61.064973000000002</v>
       </c>
     </row>
-    <row r="362" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="362" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A362" s="1">
         <v>7299142</v>
       </c>
@@ -4910,7 +4910,7 @@
         <v>-224.71911</v>
       </c>
     </row>
-    <row r="363" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="363" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A363" s="1">
         <v>7299222</v>
       </c>
@@ -4921,7 +4921,7 @@
         <v>-319.98047000000003</v>
       </c>
     </row>
-    <row r="364" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="364" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A364" s="1">
         <v>7299302</v>
       </c>
@@ -4932,7 +4932,7 @@
         <v>-210.0635</v>
       </c>
     </row>
-    <row r="365" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="365" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A365" s="1">
         <v>7299382</v>
       </c>
@@ -4943,7 +4943,7 @@
         <v>-46.409379999999999</v>
       </c>
     </row>
-    <row r="366" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="366" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A366" s="1">
         <v>7299462</v>
       </c>
@@ -4954,7 +4954,7 @@
         <v>-95.261358000000001</v>
       </c>
     </row>
-    <row r="367" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="367" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A367" s="1">
         <v>7299542</v>
       </c>
@@ -4965,7 +4965,7 @@
         <v>-219.83391</v>
       </c>
     </row>
-    <row r="368" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="368" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A368" s="1">
         <v>7299622</v>
       </c>
@@ -4976,7 +4976,7 @@
         <v>-322.42307</v>
       </c>
     </row>
-    <row r="369" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="369" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A369" s="1">
         <v>7299702</v>
       </c>
@@ -4987,7 +4987,7 @@
         <v>-219.83391</v>
       </c>
     </row>
-    <row r="370" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="370" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A370" s="1">
         <v>7299782</v>
       </c>
@@ -4998,7 +4998,7 @@
         <v>-58.622374999999998</v>
       </c>
     </row>
-    <row r="371" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="371" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A371" s="1">
         <v>7299862</v>
       </c>
@@ -5009,7 +5009,7 @@
         <v>-75.720563999999996</v>
       </c>
     </row>
-    <row r="372" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="372" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A372" s="1">
         <v>7299942</v>
       </c>
@@ -5020,7 +5020,7 @@
         <v>-175.86713</v>
       </c>
     </row>
-    <row r="373" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="373" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A373" s="1">
         <v>7300022</v>
       </c>
@@ -5031,7 +5031,7 @@
         <v>-246.70249000000001</v>
       </c>
     </row>
-    <row r="374" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="374" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A374" s="1">
         <v>7300102</v>
       </c>
@@ -5042,7 +5042,7 @@
         <v>-324.86567000000002</v>
       </c>
     </row>
-    <row r="375" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="375" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A375" s="1">
         <v>7300182</v>
       </c>
@@ -5053,7 +5053,7 @@
         <v>-190.52271999999999</v>
       </c>
     </row>
-    <row r="376" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="376" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A376" s="1">
         <v>7300262</v>
       </c>
@@ -5064,7 +5064,7 @@
         <v>-43.966780999999997</v>
       </c>
     </row>
-    <row r="377" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="377" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A377" s="1">
         <v>7300342</v>
       </c>
@@ -5075,7 +5075,7 @@
         <v>-117.24475</v>
       </c>
     </row>
-    <row r="378" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="378" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A378" s="1">
         <v>7300422</v>
       </c>
@@ -5086,7 +5086,7 @@
         <v>-217.3913</v>
       </c>
     </row>
-    <row r="379" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="379" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A379" s="1">
         <v>7300502</v>
       </c>
@@ -5097,7 +5097,7 @@
         <v>-324.86567000000002</v>
       </c>
     </row>
-    <row r="380" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="380" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A380" s="1">
         <v>7300582</v>
       </c>
@@ -5108,7 +5108,7 @@
         <v>-268.68588</v>
       </c>
     </row>
-    <row r="381" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="381" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A381" s="1">
         <v>7300662</v>
       </c>
@@ -5119,7 +5119,7 @@
         <v>-109.91696</v>
       </c>
     </row>
-    <row r="382" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="382" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A382" s="1">
         <v>7300742</v>
       </c>
@@ -5130,7 +5130,7 @@
         <v>-48.851978000000003</v>
       </c>
     </row>
-    <row r="383" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="383" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A383" s="1">
         <v>7300822</v>
       </c>
@@ -5141,7 +5141,7 @@
         <v>-65.95017</v>
       </c>
     </row>
-    <row r="384" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="384" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A384" s="1">
         <v>7300902</v>
       </c>
@@ -5152,7 +5152,7 @@
         <v>-229.60429999999999</v>
       </c>
     </row>
-    <row r="385" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="385" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A385" s="1">
         <v>7300982</v>
       </c>
@@ -5163,7 +5163,7 @@
         <v>-317.53787</v>
       </c>
     </row>
-    <row r="386" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="386" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A386" s="1">
         <v>7301062</v>
       </c>
@@ -5174,7 +5174,7 @@
         <v>-315.09528</v>
       </c>
     </row>
-    <row r="387" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="387" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A387" s="1">
         <v>7301142</v>
       </c>
@@ -5185,7 +5185,7 @@
         <v>-207.62090000000001</v>
       </c>
     </row>
-    <row r="388" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="388" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A388" s="1">
         <v>7301222</v>
       </c>
@@ -5196,7 +5196,7 @@
         <v>-73.277964999999995</v>
       </c>
     </row>
-    <row r="389" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="389" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A389" s="1">
         <v>7301302</v>
       </c>
@@ -5207,7 +5207,7 @@
         <v>-139.22814</v>
       </c>
     </row>
-    <row r="390" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="390" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A390" s="1">
         <v>7301382</v>
       </c>
@@ -5218,7 +5218,7 @@
         <v>-214.9487</v>
       </c>
     </row>
-    <row r="391" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="391" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A391" s="1">
         <v>7301462</v>
       </c>
@@ -5229,7 +5229,7 @@
         <v>-295.55446000000001</v>
       </c>
     </row>
-    <row r="392" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="392" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A392" s="1">
         <v>7301542</v>
       </c>
@@ -5240,7 +5240,7 @@
         <v>-153.88373000000001</v>
       </c>
     </row>
-    <row r="393" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="393" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A393" s="1">
         <v>7301622</v>
       </c>
@@ -5251,7 +5251,7 @@
         <v>-75.720563999999996</v>
       </c>
     </row>
-    <row r="394" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="394" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A394" s="1">
         <v>7301702</v>
       </c>
@@ -5262,7 +5262,7 @@
         <v>-70.835367000000005</v>
       </c>
     </row>
-    <row r="395" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="395" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A395" s="1">
         <v>7301782</v>
       </c>
@@ -5273,7 +5273,7 @@
         <v>-232.04689999999999</v>
       </c>
     </row>
-    <row r="396" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="396" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A396" s="1">
         <v>7301862</v>
       </c>
@@ -5284,7 +5284,7 @@
         <v>-327.30826999999999</v>
       </c>
     </row>
-    <row r="397" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="397" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A397" s="1">
         <v>7301942</v>
       </c>
@@ -5295,7 +5295,7 @@
         <v>-288.22665999999998</v>
       </c>
     </row>
-    <row r="398" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="398" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A398" s="1">
         <v>7302022</v>
       </c>
@@ -5306,7 +5306,7 @@
         <v>-161.21154000000001</v>
       </c>
     </row>
-    <row r="399" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="399" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A399" s="1">
         <v>7302102</v>
       </c>
@@ -5317,7 +5317,7 @@
         <v>-68.392769000000001</v>
       </c>
     </row>
-    <row r="400" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="400" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A400" s="1">
         <v>7302182</v>
       </c>
@@ -5328,7 +5328,7 @@
         <v>-51.294575999999999</v>
       </c>
     </row>
-    <row r="401" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="401" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A401" s="1">
         <v>7302262</v>
       </c>
@@ -5339,7 +5339,7 @@
         <v>-258.91548</v>
       </c>
     </row>
-    <row r="402" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="402" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A402" s="1">
         <v>7302342</v>
       </c>
@@ -5350,7 +5350,7 @@
         <v>-310.21005000000002</v>
       </c>
     </row>
-    <row r="403" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="403" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A403" s="1">
         <v>7302422</v>
       </c>
@@ -5361,7 +5361,7 @@
         <v>-227.16171</v>
       </c>
     </row>
-    <row r="404" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="404" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A404" s="1">
         <v>7302502</v>
       </c>
@@ -5372,7 +5372,7 @@
         <v>-75.720563999999996</v>
       </c>
     </row>
-    <row r="405" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="405" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A405" s="1">
         <v>7302582</v>
       </c>
@@ -5383,7 +5383,7 @@
         <v>-43.966780999999997</v>
       </c>
     </row>
-    <row r="406" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="406" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A406" s="1">
         <v>7302662</v>
       </c>
@@ -5394,7 +5394,7 @@
         <v>-161.21154000000001</v>
       </c>
     </row>
-    <row r="407" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="407" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A407" s="1">
         <v>7302742</v>
       </c>
@@ -5405,7 +5405,7 @@
         <v>-236.93209999999999</v>
       </c>
     </row>
-    <row r="408" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="408" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A408" s="1">
         <v>7302822</v>
       </c>
@@ -5416,7 +5416,7 @@
         <v>-324.86567000000002</v>
       </c>
     </row>
-    <row r="409" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="409" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A409" s="1">
         <v>7302902</v>
       </c>
@@ -5427,7 +5427,7 @@
         <v>-241.81729999999999</v>
       </c>
     </row>
-    <row r="410" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="410" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A410" s="1">
         <v>7302982</v>
       </c>
@@ -5438,7 +5438,7 @@
         <v>-73.277964999999995</v>
       </c>
     </row>
-    <row r="411" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="411" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A411" s="1">
         <v>7303062</v>
       </c>
@@ -5449,7 +5449,7 @@
         <v>-41.524183000000001</v>
       </c>
     </row>
-    <row r="412" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="412" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A412" s="1">
         <v>7303142</v>
       </c>
@@ -5460,7 +5460,7 @@
         <v>-97.703956000000005</v>
       </c>
     </row>
-    <row r="413" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="413" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A413" s="1">
         <v>7303222</v>
       </c>
@@ -5471,7 +5471,7 @@
         <v>-195.40790999999999</v>
       </c>
     </row>
-    <row r="414" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="414" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A414" s="1">
         <v>7303302</v>
       </c>
@@ -5482,7 +5482,7 @@
         <v>-327.30826999999999</v>
       </c>
     </row>
-    <row r="415" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="415" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A415" s="1">
         <v>7303382</v>
       </c>
@@ -5493,7 +5493,7 @@
         <v>-153.88373000000001</v>
       </c>
     </row>
-    <row r="416" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="416" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A416" s="1">
         <v>7303462</v>
       </c>
@@ -5504,7 +5504,7 @@
         <v>-46.409379999999999</v>
       </c>
     </row>
-    <row r="417" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="417" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A417" s="1">
         <v>7303542</v>
       </c>
@@ -5515,7 +5515,7 @@
         <v>-105.03175</v>
       </c>
     </row>
-    <row r="418" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="418" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A418" s="1">
         <v>7303622</v>
       </c>
@@ -5526,7 +5526,7 @@
         <v>-217.3913</v>
       </c>
     </row>
-    <row r="419" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="419" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A419" s="1">
         <v>7303702</v>
       </c>
@@ -5537,7 +5537,7 @@
         <v>-315.09528</v>
       </c>
     </row>
-    <row r="420" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="420" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A420" s="1">
         <v>7303782</v>
       </c>
@@ -5548,7 +5548,7 @@
         <v>-219.83391</v>
       </c>
     </row>
-    <row r="421" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="421" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A421" s="1">
         <v>7303862</v>
       </c>
@@ -5559,7 +5559,7 @@
         <v>-41.524183000000001</v>
       </c>
     </row>
-    <row r="422" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="422" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A422" s="1">
         <v>7303942</v>
       </c>
@@ -5570,7 +5570,7 @@
         <v>-56.179777000000001</v>
       </c>
     </row>
-    <row r="423" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="423" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A423" s="1">
         <v>7304022</v>
       </c>
@@ -5581,7 +5581,7 @@
         <v>-175.86713</v>
       </c>
     </row>
-    <row r="424" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="424" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A424" s="1">
         <v>7304102</v>
       </c>
@@ -5592,7 +5592,7 @@
         <v>-258.91548</v>
       </c>
     </row>
-    <row r="425" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="425" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A425" s="1">
         <v>7304182</v>
       </c>
@@ -5603,7 +5603,7 @@
         <v>-319.98047000000003</v>
       </c>
     </row>
-    <row r="426" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="426" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A426" s="1">
         <v>7304262</v>
       </c>
@@ -5614,7 +5614,7 @@
         <v>-173.42453</v>
       </c>
     </row>
-    <row r="427" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="427" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A427" s="1">
         <v>7304342</v>
       </c>
@@ -5625,7 +5625,7 @@
         <v>-43.966780999999997</v>
       </c>
     </row>
-    <row r="428" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="428" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A428" s="1">
         <v>7304422</v>
       </c>
@@ -5636,7 +5636,7 @@
         <v>-95.261358000000001</v>
       </c>
     </row>
-    <row r="429" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="429" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A429" s="1">
         <v>7304502</v>
       </c>
@@ -5647,7 +5647,7 @@
         <v>-227.16171</v>
       </c>
     </row>
-    <row r="430" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="430" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A430" s="1">
         <v>7304582</v>
       </c>
@@ -5658,7 +5658,7 @@
         <v>-319.98047000000003</v>
       </c>
     </row>
-    <row r="431" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="431" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A431" s="1">
         <v>7304662</v>
       </c>
@@ -5669,7 +5669,7 @@
         <v>-283.34147000000002</v>
       </c>
     </row>
-    <row r="432" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="432" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A432" s="1">
         <v>7304742</v>
       </c>
@@ -5680,7 +5680,7 @@
         <v>-134.34294</v>
       </c>
     </row>
-    <row r="433" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="433" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A433" s="1">
         <v>7304822</v>
       </c>
@@ -5691,7 +5691,7 @@
         <v>-53.737175000000001</v>
       </c>
     </row>
-    <row r="434" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="434" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A434" s="1">
         <v>7304902</v>
       </c>
@@ -5702,7 +5702,7 @@
         <v>-87.933563000000007</v>
       </c>
     </row>
-    <row r="435" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="435" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A435" s="1">
         <v>7304982</v>
       </c>
@@ -5713,7 +5713,7 @@
         <v>-251.58769000000001</v>
       </c>
     </row>
-    <row r="436" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="436" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A436" s="1">
         <v>7305062</v>
       </c>
@@ -5724,7 +5724,7 @@
         <v>-324.86567000000002</v>
       </c>
     </row>
-    <row r="437" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="437" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A437" s="1">
         <v>7305142</v>
       </c>
@@ -5735,7 +5735,7 @@
         <v>-305.32485000000003</v>
       </c>
     </row>
-    <row r="438" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="438" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A438" s="1">
         <v>7305222</v>
       </c>
@@ -5746,7 +5746,7 @@
         <v>-205.17831000000001</v>
       </c>
     </row>
-    <row r="439" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="439" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A439" s="1">
         <v>7305302</v>
       </c>
@@ -5757,7 +5757,7 @@
         <v>-68.392769000000001</v>
       </c>
     </row>
-    <row r="440" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="440" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A440" s="1">
         <v>7305382</v>
       </c>
@@ -5768,7 +5768,7 @@
         <v>-161.21154000000001</v>
       </c>
     </row>
-    <row r="441" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="441" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A441" s="1">
         <v>7305462</v>
       </c>
@@ -5779,7 +5779,7 @@
         <v>-258.91548</v>
       </c>
     </row>
-    <row r="442" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="442" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A442" s="1">
         <v>7305542</v>
       </c>
@@ -5790,7 +5790,7 @@
         <v>-324.86567000000002</v>
       </c>
     </row>
-    <row r="443" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="443" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A443" s="1">
         <v>7305622</v>
       </c>
@@ -5801,7 +5801,7 @@
         <v>-136.78554</v>
       </c>
     </row>
-    <row r="444" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="444" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A444" s="1">
         <v>7305702</v>
       </c>
@@ -5812,7 +5812,7 @@
         <v>-114.80215</v>
       </c>
     </row>
-    <row r="445" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="445" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A445" s="1">
         <v>7305782</v>
       </c>
@@ -5823,7 +5823,7 @@
         <v>-78.163168999999996</v>
       </c>
     </row>
-    <row r="446" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="446" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A446" s="1">
         <v>7305862</v>
       </c>
@@ -5834,7 +5834,7 @@
         <v>-161.21154000000001</v>
       </c>
     </row>
-    <row r="447" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="447" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A447" s="1">
         <v>7305942</v>
       </c>
@@ -5845,7 +5845,7 @@
         <v>-310.21005000000002</v>
       </c>
     </row>
-    <row r="448" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="448" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A448" s="1">
         <v>7306022</v>
       </c>
@@ -5856,7 +5856,7 @@
         <v>-305.32485000000003</v>
       </c>
     </row>
-    <row r="449" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="449" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A449" s="1">
         <v>7306102</v>
       </c>
@@ -5867,7 +5867,7 @@
         <v>-229.60429999999999</v>
       </c>
     </row>
-    <row r="450" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="450" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A450" s="1">
         <v>7306182</v>
       </c>
@@ -5878,7 +5878,7 @@
         <v>-87.933563000000007</v>
       </c>
     </row>
-    <row r="451" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="451" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A451" s="1">
         <v>7306262</v>
       </c>
@@ -5889,7 +5889,7 @@
         <v>-43.966780999999997</v>
       </c>
     </row>
-    <row r="452" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="452" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A452" s="1">
         <v>7306342</v>
       </c>
@@ -5900,7 +5900,7 @@
         <v>-168.53933000000001</v>
       </c>
     </row>
-    <row r="453" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="453" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A453" s="1">
         <v>7306422</v>
       </c>
@@ -5911,7 +5911,7 @@
         <v>-322.42307</v>
       </c>
     </row>
-    <row r="454" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="454" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A454" s="1">
         <v>7306502</v>
       </c>
@@ -5922,7 +5922,7 @@
         <v>-295.55446000000001</v>
       </c>
     </row>
-    <row r="455" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="455" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A455" s="1">
         <v>7306582</v>
       </c>
@@ -5933,7 +5933,7 @@
         <v>-100.14655</v>
       </c>
     </row>
-    <row r="456" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="456" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A456" s="1">
         <v>7306662</v>
       </c>
@@ -5944,7 +5944,7 @@
         <v>-43.966780999999997</v>
       </c>
     </row>
-    <row r="457" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="457" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A457" s="1">
         <v>7306742</v>
       </c>
@@ -5955,7 +5955,7 @@
         <v>-75.720563999999996</v>
       </c>
     </row>
-    <row r="458" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="458" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A458" s="1">
         <v>7306822</v>
       </c>
@@ -5966,7 +5966,7 @@
         <v>-178.30972</v>
       </c>
     </row>
-    <row r="459" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="459" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A459" s="1">
         <v>7306902</v>
       </c>
@@ -5977,7 +5977,7 @@
         <v>-312.65267999999998</v>
       </c>
     </row>
-    <row r="460" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="460" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A460" s="1">
         <v>7306982</v>
       </c>
@@ -5988,7 +5988,7 @@
         <v>-244.25989000000001</v>
       </c>
     </row>
-    <row r="461" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="461" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A461" s="1">
         <v>7307062</v>
       </c>
@@ -5999,7 +5999,7 @@
         <v>-168.53933000000001</v>
       </c>
     </row>
-    <row r="462" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="462" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A462" s="1">
         <v>7307142</v>
       </c>
@@ -6010,7 +6010,7 @@
         <v>-63.507572000000003</v>
       </c>
     </row>
-    <row r="463" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="463" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A463" s="1">
         <v>7307222</v>
       </c>
@@ -6021,7 +6021,7 @@
         <v>-39.081584999999997</v>
       </c>
     </row>
-    <row r="464" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="464" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A464" s="1">
         <v>7307302</v>
       </c>
@@ -6032,7 +6032,7 @@
         <v>-117.24475</v>
       </c>
     </row>
-    <row r="465" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="465" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A465" s="1">
         <v>7307382</v>
       </c>
@@ -6043,7 +6043,7 @@
         <v>-310.21005000000002</v>
       </c>
     </row>
-    <row r="466" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="466" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A466" s="1">
         <v>7307462</v>
       </c>
@@ -6054,7 +6054,7 @@
         <v>-246.70249000000001</v>
       </c>
     </row>
-    <row r="467" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="467" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A467" s="1">
         <v>7307542</v>
       </c>
@@ -6065,7 +6065,7 @@
         <v>-114.80215</v>
       </c>
     </row>
-    <row r="468" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="468" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A468" s="1">
         <v>7307622</v>
       </c>
@@ -6076,7 +6076,7 @@
         <v>-36.638983000000003</v>
       </c>
     </row>
-    <row r="469" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="469" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A469" s="1">
         <v>7307702</v>
       </c>
@@ -6087,7 +6087,7 @@
         <v>-114.80215</v>
       </c>
     </row>
-    <row r="470" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="470" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A470" s="1">
         <v>7307782</v>
       </c>
@@ -6098,7 +6098,7 @@
         <v>-322.42307</v>
       </c>
     </row>
-    <row r="471" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="471" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A471" s="1">
         <v>7307862</v>
       </c>
@@ -6109,7 +6109,7 @@
         <v>-324.86567000000002</v>
       </c>
     </row>
-    <row r="472" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="472" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A472" s="1">
         <v>7307942</v>
       </c>
@@ -6120,7 +6120,7 @@
         <v>-122.12994999999999</v>
       </c>
     </row>
-    <row r="473" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="473" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A473" s="1">
         <v>7308022</v>
       </c>
@@ -6131,7 +6131,7 @@
         <v>-43.966780999999997</v>
       </c>
     </row>
-    <row r="474" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="474" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A474" s="1">
         <v>7308102</v>
       </c>
@@ -6142,7 +6142,7 @@
         <v>-65.95017</v>
       </c>
     </row>
-    <row r="475" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="475" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A475" s="1">
         <v>7308182</v>
       </c>
@@ -6153,7 +6153,7 @@
         <v>-180.75232</v>
       </c>
     </row>
-    <row r="476" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="476" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A476" s="1">
         <v>7308262</v>
       </c>
@@ -6164,7 +6164,7 @@
         <v>-290.66926000000001</v>
       </c>
     </row>
-    <row r="477" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="477" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A477" s="1">
         <v>7308342</v>
       </c>
@@ -6175,7 +6175,7 @@
         <v>-307.76745</v>
       </c>
     </row>
-    <row r="478" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="478" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A478" s="1">
         <v>7308422</v>
       </c>
@@ -6186,7 +6186,7 @@
         <v>-151.44112999999999</v>
       </c>
     </row>
-    <row r="479" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="479" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A479" s="1">
         <v>7308502</v>
       </c>
@@ -6197,7 +6197,7 @@
         <v>-39.081584999999997</v>
       </c>
     </row>
-    <row r="480" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="480" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A480" s="1">
         <v>7308582</v>
       </c>
@@ -6208,7 +6208,7 @@
         <v>-131.90034</v>
       </c>
     </row>
-    <row r="481" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="481" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A481" s="1">
         <v>7308662</v>
       </c>
@@ -6219,7 +6219,7 @@
         <v>-246.70249000000001</v>
       </c>
     </row>
-    <row r="482" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="482" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A482" s="1">
         <v>7308742</v>
       </c>
@@ -6230,7 +6230,7 @@
         <v>-319.98047000000003</v>
       </c>
     </row>
-    <row r="483" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="483" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A483" s="1">
         <v>7308822</v>
       </c>
@@ -6241,7 +6241,7 @@
         <v>-261.35807999999997</v>
       </c>
     </row>
-    <row r="484" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="484" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A484" s="1">
         <v>7308902</v>
       </c>
@@ -6252,7 +6252,7 @@
         <v>-129.45774</v>
       </c>
     </row>
-    <row r="485" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="485" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A485" s="1">
         <v>7308982</v>
       </c>
@@ -6263,7 +6263,7 @@
         <v>-61.064973000000002</v>
       </c>
     </row>
-    <row r="486" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="486" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A486" s="1">
         <v>7309062</v>
       </c>
@@ -6274,7 +6274,7 @@
         <v>-107.47435</v>
       </c>
     </row>
-    <row r="487" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="487" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A487" s="1">
         <v>7309142</v>
       </c>
@@ -6285,7 +6285,7 @@
         <v>-271.12848000000002</v>
       </c>
     </row>
-    <row r="488" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="488" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A488" s="1">
         <v>7309222</v>
       </c>
@@ -6296,7 +6296,7 @@
         <v>-307.76745</v>
       </c>
     </row>
-    <row r="489" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="489" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A489" s="1">
         <v>7309302</v>
       </c>
@@ -6307,7 +6307,7 @@
         <v>-300.43966</v>
       </c>
     </row>
-    <row r="490" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="490" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A490" s="1">
         <v>7309382</v>
       </c>
@@ -6318,7 +6318,7 @@
         <v>-122.12994999999999</v>
       </c>
     </row>
-    <row r="491" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="491" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A491" s="1">
         <v>7309462</v>
       </c>
@@ -6329,7 +6329,7 @@
         <v>-36.638983000000003</v>
       </c>
     </row>
-    <row r="492" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="492" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A492" s="1">
         <v>7309542</v>
       </c>
@@ -6340,7 +6340,7 @@
         <v>-180.75232</v>
       </c>
     </row>
-    <row r="493" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="493" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A493" s="1">
         <v>7309622</v>
       </c>
@@ -6351,7 +6351,7 @@
         <v>-288.22665999999998</v>
       </c>
     </row>
-    <row r="494" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="494" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A494" s="1">
         <v>7309702</v>
       </c>
@@ -6362,7 +6362,7 @@
         <v>-310.21005000000002</v>
       </c>
     </row>
-    <row r="495" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="495" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A495" s="1">
         <v>7309782</v>
       </c>
@@ -6373,7 +6373,7 @@
         <v>-180.75232</v>
       </c>
     </row>
-    <row r="496" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="496" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A496" s="1">
         <v>7309862</v>
       </c>
@@ -6384,7 +6384,7 @@
         <v>-43.966780999999997</v>
       </c>
     </row>
-    <row r="497" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="497" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A497" s="1">
         <v>7309942</v>
       </c>
@@ -6395,7 +6395,7 @@
         <v>-83.048366000000001</v>
       </c>
     </row>
-    <row r="498" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="498" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A498" s="1">
         <v>7310022</v>
       </c>
@@ -6406,7 +6406,7 @@
         <v>-239.37469999999999</v>
       </c>
     </row>
-    <row r="499" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="499" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A499" s="1">
         <v>7310102</v>
       </c>
@@ -6417,7 +6417,7 @@
         <v>-324.86567000000002</v>
       </c>
     </row>
-    <row r="500" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="500" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A500" s="1">
         <v>7310182</v>
       </c>
@@ -6428,7 +6428,7 @@
         <v>-239.37469999999999</v>
       </c>
     </row>
-    <row r="501" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="501" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A501" s="1">
         <v>7310262</v>
       </c>
@@ -6439,7 +6439,7 @@
         <v>-170.98193000000001</v>
       </c>
     </row>
-    <row r="502" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="502" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A502" s="1">
         <v>7310342</v>
       </c>
@@ -6450,7 +6450,7 @@
         <v>-41.524183000000001</v>
       </c>
     </row>
-    <row r="503" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="503" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A503" s="1">
         <v>7310422</v>
       </c>
@@ -6461,7 +6461,7 @@
         <v>-68.392769000000001</v>
       </c>
     </row>
-    <row r="504" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="504" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A504" s="1">
         <v>7310502</v>
       </c>
@@ -6472,7 +6472,7 @@
         <v>-288.22665999999998</v>
       </c>
     </row>
-    <row r="505" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="505" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A505" s="1">
         <v>7310582</v>
       </c>
@@ -6483,7 +6483,7 @@
         <v>-307.76745</v>
       </c>
     </row>
-    <row r="506" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="506" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A506" s="1">
         <v>7310662</v>
       </c>
@@ -6494,7 +6494,7 @@
         <v>-195.40790999999999</v>
       </c>
     </row>
-    <row r="507" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="507" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A507" s="1">
         <v>7310742</v>
       </c>
@@ -6505,7 +6505,7 @@
         <v>-39.081584999999997</v>
       </c>
     </row>
-    <row r="508" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="508" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A508" s="1">
         <v>7310822</v>
       </c>
@@ -6516,7 +6516,7 @@
         <v>-41.524183000000001</v>
       </c>
     </row>
-    <row r="509" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="509" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A509" s="1">
         <v>7310902</v>
       </c>
@@ -6527,7 +6527,7 @@
         <v>-210.0635</v>
       </c>
     </row>
-    <row r="510" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="510" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A510" s="1">
         <v>7310982</v>
       </c>
@@ -6538,7 +6538,7 @@
         <v>-317.53787</v>
       </c>
     </row>
-    <row r="511" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="511" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A511" s="1">
         <v>7311062</v>
       </c>
@@ -6549,7 +6549,7 @@
         <v>-312.65267999999998</v>
       </c>
     </row>
-    <row r="512" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="512" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A512" s="1">
         <v>7311142</v>
       </c>
@@ -6560,7 +6560,7 @@
         <v>-166.09673000000001</v>
       </c>
     </row>
-    <row r="513" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="513" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A513" s="1">
         <v>7311222</v>
       </c>
@@ -6571,7 +6571,7 @@
         <v>-73.277964999999995</v>
       </c>
     </row>
-    <row r="514" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="514" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A514" s="1">
         <v>7311302</v>
       </c>
@@ -6582,7 +6582,7 @@
         <v>-41.524183000000001</v>
       </c>
     </row>
-    <row r="515" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="515" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A515" s="1">
         <v>7311382</v>
       </c>
@@ -6593,7 +6593,7 @@
         <v>-151.44112999999999</v>
       </c>
     </row>
-    <row r="516" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="516" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A516" s="1">
         <v>7311462</v>
       </c>
@@ -6604,7 +6604,7 @@
         <v>-288.22665999999998</v>
       </c>
     </row>
-    <row r="517" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="517" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A517" s="1">
         <v>7311542</v>
       </c>
@@ -6615,7 +6615,7 @@
         <v>-234.48949999999999</v>
       </c>
     </row>
-    <row r="518" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="518" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A518" s="1">
         <v>7311622</v>
       </c>
@@ -6626,7 +6626,7 @@
         <v>-161.21154000000001</v>
       </c>
     </row>
-    <row r="519" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="519" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A519" s="1">
         <v>7311702</v>
       </c>
@@ -6637,7 +6637,7 @@
         <v>-46.409379999999999</v>
       </c>
     </row>
-    <row r="520" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="520" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A520" s="1">
         <v>7311788</v>
       </c>
